--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.39958326468322</v>
+        <v>2.556278333333334</v>
       </c>
       <c r="H2">
-        <v>2.39958326468322</v>
+        <v>7.668835000000001</v>
       </c>
       <c r="I2">
-        <v>0.02379364184380162</v>
+        <v>0.01627371717322184</v>
       </c>
       <c r="J2">
-        <v>0.02379364184380162</v>
+        <v>0.01630406456914158</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.944601313674217</v>
+        <v>0.6025733333333333</v>
       </c>
       <c r="N2">
-        <v>0.944601313674217</v>
+        <v>1.80772</v>
       </c>
       <c r="O2">
-        <v>0.5186239561373324</v>
+        <v>0.1746913437082048</v>
       </c>
       <c r="P2">
-        <v>0.5186239561373324</v>
+        <v>0.1910715797566779</v>
       </c>
       <c r="Q2">
-        <v>2.266649504090436</v>
+        <v>1.540345156244445</v>
       </c>
       <c r="R2">
-        <v>2.266649504090436</v>
+        <v>13.8631064062</v>
       </c>
       <c r="S2">
-        <v>0.01233995266394717</v>
+        <v>0.002842877520117412</v>
       </c>
       <c r="T2">
-        <v>0.01233995266394717</v>
+        <v>0.003115243373680761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.39958326468322</v>
+        <v>2.556278333333334</v>
       </c>
       <c r="H3">
-        <v>2.39958326468322</v>
+        <v>7.668835000000001</v>
       </c>
       <c r="I3">
-        <v>0.02379364184380162</v>
+        <v>0.01627371717322184</v>
       </c>
       <c r="J3">
-        <v>0.02379364184380162</v>
+        <v>0.01630406456914158</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.876759428528145</v>
+        <v>0.3181856666666666</v>
       </c>
       <c r="N3">
-        <v>0.876759428528145</v>
+        <v>0.954557</v>
       </c>
       <c r="O3">
-        <v>0.4813760438626676</v>
+        <v>0.09224484155514839</v>
       </c>
       <c r="P3">
-        <v>0.4813760438626676</v>
+        <v>0.1008943387016768</v>
       </c>
       <c r="Q3">
-        <v>2.103857251849361</v>
+        <v>0.8133711256772223</v>
       </c>
       <c r="R3">
-        <v>2.103857251849361</v>
+        <v>7.320340131095</v>
       </c>
       <c r="S3">
-        <v>0.01145368917985445</v>
+        <v>0.001501166462157146</v>
       </c>
       <c r="T3">
-        <v>0.01145368917985445</v>
+        <v>0.001644987812852979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.84733437312559</v>
+        <v>2.556278333333334</v>
       </c>
       <c r="H4">
-        <v>5.84733437312559</v>
+        <v>7.668835000000001</v>
       </c>
       <c r="I4">
-        <v>0.05798064266524532</v>
+        <v>0.01627371717322184</v>
       </c>
       <c r="J4">
-        <v>0.05798064266524532</v>
+        <v>0.01630406456914158</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.944601313674217</v>
+        <v>1.180267666666667</v>
       </c>
       <c r="N4">
-        <v>0.944601313674217</v>
+        <v>3.540803</v>
       </c>
       <c r="O4">
-        <v>0.5186239561373324</v>
+        <v>0.342170045071163</v>
       </c>
       <c r="P4">
-        <v>0.5186239561373324</v>
+        <v>0.3742542112811632</v>
       </c>
       <c r="Q4">
-        <v>5.523399730346836</v>
+        <v>3.01709266383389</v>
       </c>
       <c r="R4">
-        <v>5.523399730346836</v>
+        <v>27.153833974505</v>
       </c>
       <c r="S4">
-        <v>0.03007015027843453</v>
+        <v>0.005568378538636676</v>
       </c>
       <c r="T4">
-        <v>0.03007015027843453</v>
+        <v>0.00610186482600124</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.84733437312559</v>
+        <v>2.556278333333334</v>
       </c>
       <c r="H5">
-        <v>5.84733437312559</v>
+        <v>7.668835000000001</v>
       </c>
       <c r="I5">
-        <v>0.05798064266524532</v>
+        <v>0.01627371717322184</v>
       </c>
       <c r="J5">
-        <v>0.05798064266524532</v>
+        <v>0.01630406456914158</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.876759428528145</v>
+        <v>0.4612103333333333</v>
       </c>
       <c r="N5">
-        <v>0.876759428528145</v>
+        <v>1.383631</v>
       </c>
       <c r="O5">
-        <v>0.4813760438626676</v>
+        <v>0.1337089585700922</v>
       </c>
       <c r="P5">
-        <v>0.4813760438626676</v>
+        <v>0.1462464103789923</v>
       </c>
       <c r="Q5">
-        <v>5.126705543394571</v>
+        <v>1.178981982209445</v>
       </c>
       <c r="R5">
-        <v>5.126705543394571</v>
+        <v>10.610837839885</v>
       </c>
       <c r="S5">
-        <v>0.02791049238681079</v>
+        <v>0.002175941775295718</v>
       </c>
       <c r="T5">
-        <v>0.02791049238681079</v>
+        <v>0.002384410917824268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.0998990911929</v>
+        <v>2.556278333333334</v>
       </c>
       <c r="H6">
-        <v>58.0998990911929</v>
+        <v>7.668835000000001</v>
       </c>
       <c r="I6">
-        <v>0.5761034469955588</v>
+        <v>0.01627371717322184</v>
       </c>
       <c r="J6">
-        <v>0.5761034469955588</v>
+        <v>0.01630406456914158</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.944601313674217</v>
+        <v>0.887123</v>
       </c>
       <c r="N6">
-        <v>0.944601313674217</v>
+        <v>1.774246</v>
       </c>
       <c r="O6">
-        <v>0.5186239561373324</v>
+        <v>0.2571848110953916</v>
       </c>
       <c r="P6">
-        <v>0.5186239561373324</v>
+        <v>0.1875334598814898</v>
       </c>
       <c r="Q6">
-        <v>54.88124100588026</v>
+        <v>2.267733303901667</v>
       </c>
       <c r="R6">
-        <v>54.88124100588026</v>
+        <v>13.60639982341</v>
       </c>
       <c r="S6">
-        <v>0.2987810488251907</v>
+        <v>0.004185352877014889</v>
       </c>
       <c r="T6">
-        <v>0.2987810488251907</v>
+        <v>0.003057557638782332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.0998990911929</v>
+        <v>6.433290333333333</v>
       </c>
       <c r="H7">
-        <v>58.0998990911929</v>
+        <v>19.299871</v>
       </c>
       <c r="I7">
-        <v>0.5761034469955588</v>
+        <v>0.04095545700665956</v>
       </c>
       <c r="J7">
-        <v>0.5761034469955588</v>
+        <v>0.04103183116602496</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.876759428528145</v>
+        <v>0.6025733333333333</v>
       </c>
       <c r="N7">
-        <v>0.876759428528145</v>
+        <v>1.80772</v>
       </c>
       <c r="O7">
-        <v>0.4813760438626676</v>
+        <v>0.1746913437082048</v>
       </c>
       <c r="P7">
-        <v>0.4813760438626676</v>
+        <v>0.1910715797566779</v>
       </c>
       <c r="Q7">
-        <v>50.93963432473718</v>
+        <v>3.876529200457777</v>
       </c>
       <c r="R7">
-        <v>50.93963432473718</v>
+        <v>34.88876280412</v>
       </c>
       <c r="S7">
-        <v>0.2773223981703681</v>
+        <v>0.00715456381667697</v>
       </c>
       <c r="T7">
-        <v>0.2773223981703681</v>
+        <v>0.00784001680120168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.6525686008741</v>
+        <v>6.433290333333333</v>
       </c>
       <c r="H8">
-        <v>33.6525686008741</v>
+        <v>19.299871</v>
       </c>
       <c r="I8">
-        <v>0.3336900936916931</v>
+        <v>0.04095545700665956</v>
       </c>
       <c r="J8">
-        <v>0.3336900936916931</v>
+        <v>0.04103183116602496</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.944601313674217</v>
+        <v>0.3181856666666666</v>
       </c>
       <c r="N8">
-        <v>0.944601313674217</v>
+        <v>0.954557</v>
       </c>
       <c r="O8">
-        <v>0.5186239561373324</v>
+        <v>0.09224484155514839</v>
       </c>
       <c r="P8">
-        <v>0.5186239561373324</v>
+        <v>0.1008943387016768</v>
       </c>
       <c r="Q8">
-        <v>31.78826050889738</v>
+        <v>2.046980773571889</v>
       </c>
       <c r="R8">
-        <v>31.78826050889738</v>
+        <v>18.422826962147</v>
       </c>
       <c r="S8">
-        <v>0.173059676514223</v>
+        <v>0.003777929642398003</v>
       </c>
       <c r="T8">
-        <v>0.173059676514223</v>
+        <v>0.00413987947121494</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.6525686008741</v>
+        <v>6.433290333333333</v>
       </c>
       <c r="H9">
-        <v>33.6525686008741</v>
+        <v>19.299871</v>
       </c>
       <c r="I9">
-        <v>0.3336900936916931</v>
+        <v>0.04095545700665956</v>
       </c>
       <c r="J9">
-        <v>0.3336900936916931</v>
+        <v>0.04103183116602496</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.876759428528145</v>
+        <v>1.180267666666667</v>
       </c>
       <c r="N9">
-        <v>0.876759428528145</v>
+        <v>3.540803</v>
       </c>
       <c r="O9">
-        <v>0.4813760438626676</v>
+        <v>0.342170045071163</v>
       </c>
       <c r="P9">
-        <v>0.4813760438626676</v>
+        <v>0.3742542112811632</v>
       </c>
       <c r="Q9">
-        <v>29.50520681500657</v>
+        <v>7.593004570712555</v>
       </c>
       <c r="R9">
-        <v>29.50520681500657</v>
+        <v>68.33704113641299</v>
       </c>
       <c r="S9">
-        <v>0.1606304171774701</v>
+        <v>0.01401373056987878</v>
       </c>
       <c r="T9">
-        <v>0.1606304171774701</v>
+        <v>0.01535633561046252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.850382874411285</v>
+        <v>6.433290333333333</v>
       </c>
       <c r="H10">
-        <v>0.850382874411285</v>
+        <v>19.299871</v>
       </c>
       <c r="I10">
-        <v>0.008432174803701091</v>
+        <v>0.04095545700665956</v>
       </c>
       <c r="J10">
-        <v>0.008432174803701091</v>
+        <v>0.04103183116602496</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.944601313674217</v>
+        <v>0.4612103333333333</v>
       </c>
       <c r="N10">
-        <v>0.944601313674217</v>
+        <v>1.383631</v>
       </c>
       <c r="O10">
-        <v>0.5186239561373324</v>
+        <v>0.1337089585700922</v>
       </c>
       <c r="P10">
-        <v>0.5186239561373324</v>
+        <v>0.1462464103789923</v>
       </c>
       <c r="Q10">
-        <v>0.8032727802949565</v>
+        <v>2.967099979066778</v>
       </c>
       <c r="R10">
-        <v>0.8032727802949565</v>
+        <v>26.703899811601</v>
       </c>
       <c r="S10">
-        <v>0.004373127855536994</v>
+        <v>0.005476111504122637</v>
       </c>
       <c r="T10">
-        <v>0.004373127855536994</v>
+        <v>0.006000758019308013</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.850382874411285</v>
+        <v>6.433290333333333</v>
       </c>
       <c r="H11">
-        <v>0.850382874411285</v>
+        <v>19.299871</v>
       </c>
       <c r="I11">
-        <v>0.008432174803701091</v>
+        <v>0.04095545700665956</v>
       </c>
       <c r="J11">
-        <v>0.008432174803701091</v>
+        <v>0.04103183116602496</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.876759428528145</v>
+        <v>0.887123</v>
       </c>
       <c r="N11">
-        <v>0.876759428528145</v>
+        <v>1.774246</v>
       </c>
       <c r="O11">
-        <v>0.4813760438626676</v>
+        <v>0.2571848110953916</v>
       </c>
       <c r="P11">
-        <v>0.4813760438626676</v>
+        <v>0.1875334598814898</v>
       </c>
       <c r="Q11">
-        <v>0.7455812029989596</v>
+        <v>5.707119820377666</v>
       </c>
       <c r="R11">
-        <v>0.7455812029989596</v>
+        <v>34.242718922266</v>
       </c>
       <c r="S11">
-        <v>0.004059046948164097</v>
+        <v>0.01053312147358317</v>
       </c>
       <c r="T11">
-        <v>0.004059046948164097</v>
+        <v>0.007694841263837804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>88.38730466666668</v>
+      </c>
+      <c r="H12">
+        <v>265.161914</v>
+      </c>
+      <c r="I12">
+        <v>0.5626891168666652</v>
+      </c>
+      <c r="J12">
+        <v>0.5637384253453317</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.6025733333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.80772</v>
+      </c>
+      <c r="O12">
+        <v>0.1746913437082048</v>
+      </c>
+      <c r="P12">
+        <v>0.1910715797566779</v>
+      </c>
+      <c r="Q12">
+        <v>53.25983279734223</v>
+      </c>
+      <c r="R12">
+        <v>479.33849517608</v>
+      </c>
+      <c r="S12">
+        <v>0.09829691791542083</v>
+      </c>
+      <c r="T12">
+        <v>0.1077143915002745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>88.38730466666668</v>
+      </c>
+      <c r="H13">
+        <v>265.161914</v>
+      </c>
+      <c r="I13">
+        <v>0.5626891168666652</v>
+      </c>
+      <c r="J13">
+        <v>0.5637384253453317</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.3181856666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.954557</v>
+      </c>
+      <c r="O13">
+        <v>0.09224484155514839</v>
+      </c>
+      <c r="P13">
+        <v>0.1008943387016768</v>
+      </c>
+      <c r="Q13">
+        <v>28.12357346023311</v>
+      </c>
+      <c r="R13">
+        <v>253.112161142098</v>
+      </c>
+      <c r="S13">
+        <v>0.05190516843017191</v>
+      </c>
+      <c r="T13">
+        <v>0.05687801562594183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>88.38730466666668</v>
+      </c>
+      <c r="H14">
+        <v>265.161914</v>
+      </c>
+      <c r="I14">
+        <v>0.5626891168666652</v>
+      </c>
+      <c r="J14">
+        <v>0.5637384253453317</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.180267666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.540803</v>
+      </c>
+      <c r="O14">
+        <v>0.342170045071163</v>
+      </c>
+      <c r="P14">
+        <v>0.3742542112811632</v>
+      </c>
+      <c r="Q14">
+        <v>104.3206778418825</v>
+      </c>
+      <c r="R14">
+        <v>938.8861005769421</v>
+      </c>
+      <c r="S14">
+        <v>0.1925353604793197</v>
+      </c>
+      <c r="T14">
+        <v>0.210981479746502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>88.38730466666668</v>
+      </c>
+      <c r="H15">
+        <v>265.161914</v>
+      </c>
+      <c r="I15">
+        <v>0.5626891168666652</v>
+      </c>
+      <c r="J15">
+        <v>0.5637384253453317</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.4612103333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.383631</v>
+      </c>
+      <c r="O15">
+        <v>0.1337089585700922</v>
+      </c>
+      <c r="P15">
+        <v>0.1462464103789923</v>
+      </c>
+      <c r="Q15">
+        <v>40.76513824774823</v>
+      </c>
+      <c r="R15">
+        <v>366.8862442297341</v>
+      </c>
+      <c r="S15">
+        <v>0.07523657581496673</v>
+      </c>
+      <c r="T15">
+        <v>0.0824447210994603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>88.38730466666668</v>
+      </c>
+      <c r="H16">
+        <v>265.161914</v>
+      </c>
+      <c r="I16">
+        <v>0.5626891168666652</v>
+      </c>
+      <c r="J16">
+        <v>0.5637384253453317</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.887123</v>
+      </c>
+      <c r="N16">
+        <v>1.774246</v>
+      </c>
+      <c r="O16">
+        <v>0.2571848110953916</v>
+      </c>
+      <c r="P16">
+        <v>0.1875334598814898</v>
+      </c>
+      <c r="Q16">
+        <v>78.41041087780735</v>
+      </c>
+      <c r="R16">
+        <v>470.462465266844</v>
+      </c>
+      <c r="S16">
+        <v>0.144715094226786</v>
+      </c>
+      <c r="T16">
+        <v>0.105719817373153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>58.82616266666667</v>
+      </c>
+      <c r="H17">
+        <v>176.478488</v>
+      </c>
+      <c r="I17">
+        <v>0.3744976910925615</v>
+      </c>
+      <c r="J17">
+        <v>0.3751960582561077</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.6025733333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.80772</v>
+      </c>
+      <c r="O17">
+        <v>0.1746913437082048</v>
+      </c>
+      <c r="P17">
+        <v>0.1910715797566779</v>
+      </c>
+      <c r="Q17">
+        <v>35.44707692526222</v>
+      </c>
+      <c r="R17">
+        <v>319.02369232736</v>
+      </c>
+      <c r="S17">
+        <v>0.06542150487257978</v>
+      </c>
+      <c r="T17">
+        <v>0.07168930356947303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>58.82616266666667</v>
+      </c>
+      <c r="H18">
+        <v>176.478488</v>
+      </c>
+      <c r="I18">
+        <v>0.3744976910925615</v>
+      </c>
+      <c r="J18">
+        <v>0.3751960582561077</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.3181856666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.954557</v>
+      </c>
+      <c r="O18">
+        <v>0.09224484155514839</v>
+      </c>
+      <c r="P18">
+        <v>0.1008943387016768</v>
+      </c>
+      <c r="Q18">
+        <v>18.71764178553511</v>
+      </c>
+      <c r="R18">
+        <v>168.458776069816</v>
+      </c>
+      <c r="S18">
+        <v>0.03454548017760225</v>
+      </c>
+      <c r="T18">
+        <v>0.03785515818122578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>58.82616266666667</v>
+      </c>
+      <c r="H19">
+        <v>176.478488</v>
+      </c>
+      <c r="I19">
+        <v>0.3744976910925615</v>
+      </c>
+      <c r="J19">
+        <v>0.3751960582561077</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.180267666666667</v>
+      </c>
+      <c r="N19">
+        <v>3.540803</v>
+      </c>
+      <c r="O19">
+        <v>0.342170045071163</v>
+      </c>
+      <c r="P19">
+        <v>0.3742542112811632</v>
+      </c>
+      <c r="Q19">
+        <v>69.43061774954045</v>
+      </c>
+      <c r="R19">
+        <v>624.8755597458639</v>
+      </c>
+      <c r="S19">
+        <v>0.1281418918401883</v>
+      </c>
+      <c r="T19">
+        <v>0.1404187048584409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>58.82616266666667</v>
+      </c>
+      <c r="H20">
+        <v>176.478488</v>
+      </c>
+      <c r="I20">
+        <v>0.3744976910925615</v>
+      </c>
+      <c r="J20">
+        <v>0.3751960582561077</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.4612103333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.383631</v>
+      </c>
+      <c r="O20">
+        <v>0.1337089585700922</v>
+      </c>
+      <c r="P20">
+        <v>0.1462464103789923</v>
+      </c>
+      <c r="Q20">
+        <v>27.13123409221422</v>
+      </c>
+      <c r="R20">
+        <v>244.181106829928</v>
+      </c>
+      <c r="S20">
+        <v>0.05007369626289051</v>
+      </c>
+      <c r="T20">
+        <v>0.05487107670830303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>58.82616266666667</v>
+      </c>
+      <c r="H21">
+        <v>176.478488</v>
+      </c>
+      <c r="I21">
+        <v>0.3744976910925615</v>
+      </c>
+      <c r="J21">
+        <v>0.3751960582561077</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.887123</v>
+      </c>
+      <c r="N21">
+        <v>1.774246</v>
+      </c>
+      <c r="O21">
+        <v>0.2571848110953916</v>
+      </c>
+      <c r="P21">
+        <v>0.1875334598814898</v>
+      </c>
+      <c r="Q21">
+        <v>52.18604190334133</v>
+      </c>
+      <c r="R21">
+        <v>313.116251420048</v>
+      </c>
+      <c r="S21">
+        <v>0.09631511793930075</v>
+      </c>
+      <c r="T21">
+        <v>0.07036181493866488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8771384999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.754277</v>
+      </c>
+      <c r="I22">
+        <v>0.005584017860891795</v>
+      </c>
+      <c r="J22">
+        <v>0.003729620663394112</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.6025733333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.80772</v>
+      </c>
+      <c r="O22">
+        <v>0.1746913437082048</v>
+      </c>
+      <c r="P22">
+        <v>0.1910715797566779</v>
+      </c>
+      <c r="Q22">
+        <v>0.5285402697399999</v>
+      </c>
+      <c r="R22">
+        <v>3.17124161844</v>
+      </c>
+      <c r="S22">
+        <v>0.000975479583409803</v>
+      </c>
+      <c r="T22">
+        <v>0.0007126245120478618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8771384999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.754277</v>
+      </c>
+      <c r="I23">
+        <v>0.005584017860891795</v>
+      </c>
+      <c r="J23">
+        <v>0.003729620663394112</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.3181856666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.954557</v>
+      </c>
+      <c r="O23">
+        <v>0.09224484155514839</v>
+      </c>
+      <c r="P23">
+        <v>0.1008943387016768</v>
+      </c>
+      <c r="Q23">
+        <v>0.2790928983815</v>
+      </c>
+      <c r="R23">
+        <v>1.674557390289</v>
+      </c>
+      <c r="S23">
+        <v>0.0005150968428190823</v>
+      </c>
+      <c r="T23">
+        <v>0.000376297610441258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8771384999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.754277</v>
+      </c>
+      <c r="I24">
+        <v>0.005584017860891795</v>
+      </c>
+      <c r="J24">
+        <v>0.003729620663394112</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.180267666666667</v>
+      </c>
+      <c r="N24">
+        <v>3.540803</v>
+      </c>
+      <c r="O24">
+        <v>0.342170045071163</v>
+      </c>
+      <c r="P24">
+        <v>0.3742542112811632</v>
+      </c>
+      <c r="Q24">
+        <v>1.0352582107385</v>
+      </c>
+      <c r="R24">
+        <v>6.211549264431</v>
+      </c>
+      <c r="S24">
+        <v>0.001910683643139525</v>
+      </c>
+      <c r="T24">
+        <v>0.001395826239756492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8771384999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.754277</v>
+      </c>
+      <c r="I25">
+        <v>0.005584017860891795</v>
+      </c>
+      <c r="J25">
+        <v>0.003729620663394112</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.4612103333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.383631</v>
+      </c>
+      <c r="O25">
+        <v>0.1337089585700922</v>
+      </c>
+      <c r="P25">
+        <v>0.1462464103789923</v>
+      </c>
+      <c r="Q25">
+        <v>0.4045453399645</v>
+      </c>
+      <c r="R25">
+        <v>2.427272039787</v>
+      </c>
+      <c r="S25">
+        <v>0.0007466332128166361</v>
+      </c>
+      <c r="T25">
+        <v>0.0005454436340967048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8771384999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.754277</v>
+      </c>
+      <c r="I26">
+        <v>0.005584017860891795</v>
+      </c>
+      <c r="J26">
+        <v>0.003729620663394112</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.887123</v>
+      </c>
+      <c r="N26">
+        <v>1.774246</v>
+      </c>
+      <c r="O26">
+        <v>0.2571848110953916</v>
+      </c>
+      <c r="P26">
+        <v>0.1875334598814898</v>
+      </c>
+      <c r="Q26">
+        <v>0.7781297375355</v>
+      </c>
+      <c r="R26">
+        <v>3.112518950142</v>
+      </c>
+      <c r="S26">
+        <v>0.001436124578706749</v>
+      </c>
+      <c r="T26">
+        <v>0.000699428667051795</v>
       </c>
     </row>
   </sheetData>
